--- a/tests/artifact/script/Mobile-TransferNote.xlsx
+++ b/tests/artifact/script/Mobile-TransferNote.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="887">
   <si>
     <t>target</t>
   </si>
@@ -2715,15 +2715,6 @@
   </si>
   <si>
     <t>${tndetailsno}</t>
-  </si>
-  <si>
-    <t>${tn.actual.receiptDate}</t>
-  </si>
-  <si>
-    <t>Click on Approve Button</t>
-  </si>
-  <si>
-    <t>${tn.approve.button}</t>
   </si>
   <si>
     <t>Print Functionality</t>
@@ -2745,7 +2736,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2814,12 +2805,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -3366,11 +3351,14 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3379,122 +3367,119 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3616,14 +3601,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3650,7 +3627,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3658,24 +3635,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3706,14 +3679,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6810,14 +6779,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6831,12 +6800,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6848,7 +6817,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6883,10 +6852,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6901,33 +6870,33 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="58" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -6939,7 +6908,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="50"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="22"/>
       <c r="L6" s="23"/>
       <c r="M6" s="21"/>
@@ -6956,7 +6925,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -6973,7 +6942,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -6990,7 +6959,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -7007,7 +6976,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -7024,7 +6993,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -7041,7 +7010,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -7058,7 +7027,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7075,7 +7044,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7092,7 +7061,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7109,7 +7078,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7126,7 +7095,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7143,7 +7112,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7160,7 +7129,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7177,7 +7146,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7194,7 +7163,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7211,7 +7180,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7228,7 +7197,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7245,7 +7214,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7262,7 +7231,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7279,7 +7248,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7296,7 +7265,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7313,7 +7282,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7330,7 +7299,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="48"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7347,7 +7316,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="48"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7364,7 +7333,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="48"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7381,7 +7350,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7398,7 +7367,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="48"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7415,7 +7384,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="48"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7432,7 +7401,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7449,7 +7418,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="48"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7466,7 +7435,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="48"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7483,7 +7452,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7500,7 +7469,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="48"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7517,7 +7486,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7534,7 +7503,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="48"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7551,7 +7520,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="48"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7568,7 +7537,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="48"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7585,7 +7554,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7602,7 +7571,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="48"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7619,7 +7588,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7636,7 +7605,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7653,7 +7622,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7670,7 +7639,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="48"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7687,7 +7656,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="48"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7704,7 +7673,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="48"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7721,7 +7690,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="48"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7738,7 +7707,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="48"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7755,7 +7724,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="48"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7772,7 +7741,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="48"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7789,7 +7758,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="48"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7806,7 +7775,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="48"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7823,7 +7792,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="48"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7840,7 +7809,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="48"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7857,7 +7826,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="48"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7874,7 +7843,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7891,7 +7860,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7908,7 +7877,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7925,7 +7894,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7942,7 +7911,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="48"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7959,7 +7928,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="48"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7976,7 +7945,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7993,7 +7962,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="48"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -8010,7 +7979,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="48"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -8027,7 +7996,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="48"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -8044,7 +8013,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="48"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -8061,7 +8030,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="48"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8078,7 +8047,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="48"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8095,7 +8064,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="48"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8112,7 +8081,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="48"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8129,7 +8098,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="48"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8146,7 +8115,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="48"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8163,7 +8132,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="48"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8180,7 +8149,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8197,7 +8166,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="48"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8214,7 +8183,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="48"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8231,7 +8200,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="48"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8248,7 +8217,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="48"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8265,7 +8234,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="48"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8282,7 +8251,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="48"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8299,7 +8268,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="48"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8316,7 +8285,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="48"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8333,7 +8302,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="48"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8350,7 +8319,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="48"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8367,7 +8336,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="48"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8384,7 +8353,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="48"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8401,7 +8370,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="48"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8418,7 +8387,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="48"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8435,7 +8404,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="48"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8452,7 +8421,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="48"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8469,7 +8438,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="48"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8486,7 +8455,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="48"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8503,7 +8472,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="48"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8520,7 +8489,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="48"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8537,7 +8506,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="48"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8554,7 +8523,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="48"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8571,7 +8540,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="48"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8588,7 +8557,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="48"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8605,7 +8574,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="48"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8622,7 +8591,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="48"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8639,7 +8608,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="48"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8656,7 +8625,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="48"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8673,7 +8642,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="48"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8690,7 +8659,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="48"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8707,7 +8676,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="48"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8724,7 +8693,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="48"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8741,7 +8710,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="48"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8758,7 +8727,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="48"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8775,7 +8744,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="48"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8792,7 +8761,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="48"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8809,7 +8778,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="48"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8826,7 +8795,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="48"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8843,7 +8812,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="48"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8860,7 +8829,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="48"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8877,7 +8846,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="48"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8894,7 +8863,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="48"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8911,7 +8880,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="48"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8928,7 +8897,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="48"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8945,7 +8914,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="48"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8962,7 +8931,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="48"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8979,7 +8948,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="48"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8996,7 +8965,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="48"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -9013,7 +8982,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="48"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -9030,7 +8999,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="48"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -9047,7 +9016,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="48"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -9064,7 +9033,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="48"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9081,7 +9050,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="48"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9098,7 +9067,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="48"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9115,7 +9084,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="48"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9132,7 +9101,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="48"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9149,7 +9118,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="48"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9166,7 +9135,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="48"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9183,7 +9152,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="48"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9200,7 +9169,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="48"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9217,7 +9186,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="48"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9234,7 +9203,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="48"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9251,7 +9220,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="48"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9268,7 +9237,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="48"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9285,7 +9254,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="48"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9302,7 +9271,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="48"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9319,7 +9288,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="48"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9336,7 +9305,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="48"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9353,7 +9322,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="48"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9370,7 +9339,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="48"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9387,7 +9356,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="48"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9404,7 +9373,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="48"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9421,7 +9390,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="48"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9438,7 +9407,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="48"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9455,7 +9424,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="48"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9472,7 +9441,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="48"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9489,7 +9458,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="48"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9506,7 +9475,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="48"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9523,7 +9492,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="48"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9540,7 +9509,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="48"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9557,7 +9526,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="48"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9574,7 +9543,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="48"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9591,7 +9560,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="48"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9608,7 +9577,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="48"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9625,7 +9594,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="48"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9642,7 +9611,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="48"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9659,7 +9628,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="48"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9676,7 +9645,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="48"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9693,7 +9662,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="48"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9756,10 +9725,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9803,14 +9772,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9824,12 +9793,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9841,7 +9810,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9876,10 +9845,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9915,12 +9884,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -9931,39 +9900,45 @@
         <v>30</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>757</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="30" t="s">
+        <v>758</v>
+      </c>
       <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>715</v>
+        <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -9973,22 +9948,24 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="F8" s="27"/>
+        <v>761</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>757</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -9997,21 +9974,23 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>762</v>
+      </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>715</v>
+        <v>363</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F9" s="27"/>
+        <v>763</v>
+      </c>
+      <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10021,22 +10000,22 @@
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="30" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>761</v>
-      </c>
-      <c r="F10" s="27"/>
+        <v>765</v>
+      </c>
+      <c r="F10" s="28"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10059,7 +10038,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10067,9 +10046,11 @@
       <c r="O11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="19" t="s">
+        <v>766</v>
+      </c>
       <c r="B12" s="30" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -10078,13 +10059,13 @@
         <v>363</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10094,7 +10075,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10103,36 +10084,42 @@
         <v>253</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
       <c r="N13" s="23"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="30"/>
+    <row r="14" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+      <c r="A14" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>772</v>
+      </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>715</v>
+        <v>576</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>773</v>
+      </c>
+      <c r="F14" s="28">
+        <v>5000</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10140,26 +10127,24 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="19" t="s">
-        <v>766</v>
-      </c>
+      <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10168,52 +10153,48 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>769</v>
-      </c>
+      <c r="B16" s="30"/>
       <c r="C16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>253</v>
+        <v>715</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
       <c r="N16" s="23"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F17" s="28">
-        <v>5000</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="F17" s="28"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10222,23 +10203,23 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F18" s="28"/>
+      <c r="E18" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="F18" s="34"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10247,21 +10228,21 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="33" t="s">
         <v>757</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10269,26 +10250,26 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F20" s="28"/>
+      <c r="D20" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F20" s="34">
+        <v>3000</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10296,24 +10277,28 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="19" t="s">
+        <v>779</v>
+      </c>
       <c r="B21" s="31" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>253</v>
+        <v>692</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="F21" s="34"/>
+        <v>781</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>782</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10336,7 +10321,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10346,22 +10331,24 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="31" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="F23" s="34"/>
+        <v>784</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>785</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10370,21 +10357,23 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="27" t="s">
         <v>715</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10392,28 +10381,24 @@
       <c r="O24" s="22"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>782</v>
-      </c>
+      <c r="D25" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="F25" s="28"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10422,21 +10407,25 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="F26" s="34"/>
+      <c r="D26" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10445,25 +10434,25 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>785</v>
+      <c r="E27" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>794</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10472,23 +10461,25 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30" t="s">
-        <v>786</v>
+      <c r="B28" s="20" t="s">
+        <v>795</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F28" s="28"/>
+        <v>796</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>797</v>
+      </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10497,23 +10488,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30" t="s">
-        <v>787</v>
+      <c r="B29" s="20" t="s">
+        <v>798</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="F29" s="28"/>
+        <v>799</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>800</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="48"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10522,8 +10515,8 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30" t="s">
-        <v>789</v>
+      <c r="B30" s="20" t="s">
+        <v>801</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10532,15 +10525,15 @@
         <v>707</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>791</v>
+        <v>802</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>803</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="48"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10550,24 +10543,24 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="20" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="48"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10577,7 +10570,7 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="20" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
@@ -10586,42 +10579,42 @@
         <v>707</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
-        <v>798</v>
+    <row r="33" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36" t="s">
+        <v>810</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>800</v>
+        <v>811</v>
+      </c>
+      <c r="F33" s="28">
+        <v>3000</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="48"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10630,25 +10623,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>803</v>
+      <c r="D34" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F34" s="34">
+        <v>3000</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="48"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10657,25 +10650,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>806</v>
+      <c r="D35" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="F35" s="34">
+        <v>3000</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10684,52 +10677,52 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>707</v>
+      <c r="D36" s="33" t="s">
+        <v>366</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>809</v>
+        <v>757</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="48"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36" t="s">
-        <v>810</v>
-      </c>
-      <c r="C37" s="26" t="s">
+    <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>811</v>
-      </c>
-      <c r="F37" s="28">
-        <v>3000</v>
+      <c r="D37" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>782</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="48"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10738,25 +10731,25 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="37" t="s">
-        <v>812</v>
+      <c r="B38" s="31" t="s">
+        <v>783</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>366</v>
+        <v>707</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="F38" s="34">
-        <v>3000</v>
+        <v>784</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>785</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10765,52 +10758,52 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="37" t="s">
-        <v>813</v>
-      </c>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="F39" s="34">
-        <v>3000</v>
+      <c r="D39" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>806</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="48"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
       <c r="N39" s="23"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A40" s="19"/>
-      <c r="B40" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="C40" s="32" t="s">
+    <row r="40" s="1" customFormat="1" ht="45" customHeight="1" spans="1:15">
+      <c r="A40" s="35"/>
+      <c r="B40" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>366</v>
+      <c r="D40" s="27" t="s">
+        <v>707</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10820,24 +10813,20 @@
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="31" t="s">
-        <v>780</v>
+        <v>815</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>782</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="48"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10847,24 +10836,22 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="C42" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>785</v>
-      </c>
+      <c r="D42" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="F42" s="34"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="48"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10873,52 +10860,50 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="20" t="s">
-        <v>804</v>
+      <c r="B43" s="31" t="s">
+        <v>817</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>806</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F43" s="34"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="48"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="45" customHeight="1" spans="1:15">
-      <c r="A44" s="35"/>
-      <c r="B44" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="C44" s="26" t="s">
+    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>809</v>
+      <c r="D44" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F44" s="34">
+        <v>3000</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10926,22 +10911,28 @@
       <c r="O44" s="22"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="s">
+        <v>818</v>
+      </c>
       <c r="B45" s="31" t="s">
-        <v>815</v>
+        <v>780</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
+        <v>692</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>782</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="48"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10951,22 +10942,24 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="C46" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="F46" s="34"/>
+      <c r="D46" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>785</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10975,23 +10968,23 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="31" t="s">
-        <v>817</v>
+      <c r="B47" s="30" t="s">
+        <v>787</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="F47" s="34"/>
+        <v>788</v>
+      </c>
+      <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10999,26 +10992,28 @@
       <c r="O47" s="22"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A48" s="19"/>
-      <c r="B48" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="C48" s="32" t="s">
+      <c r="A48" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="F48" s="34">
-        <v>3000</v>
+      <c r="D48" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>791</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11026,28 +11021,26 @@
       <c r="O48" s="22"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="C49" s="32" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>782</v>
+      <c r="E49" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>794</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="48"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11056,25 +11049,25 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>785</v>
+      <c r="D50" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>797</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="48"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11083,23 +11076,25 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30" t="s">
-        <v>787</v>
+      <c r="B51" s="20" t="s">
+        <v>798</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="F51" s="28"/>
+        <v>799</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>800</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="48"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11107,11 +11102,9 @@
       <c r="O51" s="22"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A52" s="19" t="s">
-        <v>819</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>789</v>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20" t="s">
+        <v>801</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11120,15 +11113,15 @@
         <v>707</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>791</v>
+        <v>802</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>820</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="48"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11138,24 +11131,24 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="20" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="48"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11165,7 +11158,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="20" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
@@ -11174,15 +11167,15 @@
         <v>707</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="48"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11192,51 +11185,49 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="20" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="48"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
       <c r="N55" s="23"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="56" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="20" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>820</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="48"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11246,24 +11237,24 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="20" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="48"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11273,24 +11264,22 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>809</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="48"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11299,50 +11288,48 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="36"/>
+      <c r="C59" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="F59" s="27" t="s">
+      <c r="D59" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="E59" s="33" t="s">
         <v>757</v>
       </c>
+      <c r="F59" s="34"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="48"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
       <c r="N59" s="23"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
+    <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
-      <c r="B60" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="C60" s="26" t="s">
+      <c r="B60" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C60" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="F60" s="27"/>
+      <c r="D60" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>830</v>
+      </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="48"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11351,25 +11338,21 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
-      <c r="B61" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>757</v>
-      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>831</v>
+      </c>
+      <c r="F61" s="33"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11378,23 +11361,25 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F62" s="27"/>
+      <c r="B62" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>833</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>834</v>
+      </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11403,21 +11388,25 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="36" t="s">
+        <v>835</v>
+      </c>
       <c r="C63" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>715</v>
+        <v>49</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="F63" s="34"/>
+        <v>836</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>831</v>
+      </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11426,25 +11415,21 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="38" t="s">
-        <v>828</v>
-      </c>
-      <c r="C64" s="32" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>830</v>
-      </c>
+      <c r="D64" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11452,22 +11437,26 @@
       <c r="O64" s="22"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="19"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>831</v>
-      </c>
-      <c r="F65" s="33"/>
+      <c r="A65" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="48"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11476,25 +11465,25 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>833</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>834</v>
+      <c r="B66" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>842</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="48"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11503,25 +11492,21 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
-      <c r="B67" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>836</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>831</v>
-      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11530,21 +11515,25 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>843</v>
+      </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F68" s="27"/>
+        <v>844</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>845</v>
+      </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="48"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11552,26 +11541,24 @@
       <c r="O68" s="22"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A69" s="19" t="s">
-        <v>837</v>
-      </c>
+      <c r="A69" s="19"/>
       <c r="B69" s="20" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="48"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11580,25 +11567,25 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="36" t="s">
+        <v>848</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="E70" s="27" t="s">
-        <v>841</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>842</v>
+      <c r="E70" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>850</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="48"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11607,21 +11594,25 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F71" s="27"/>
+      <c r="B71" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>852</v>
+      </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="48"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11630,25 +11621,25 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>845</v>
+      <c r="B72" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>854</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="48"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11657,21 +11648,23 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="51" t="s">
+      <c r="B73" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="C73" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="27" t="s">
         <v>715</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="27" t="s">
         <v>757</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="48"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11681,7 +11674,7 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="20" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>30</v>
@@ -11690,13 +11683,13 @@
         <v>363</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="48"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11704,80 +11697,82 @@
       <c r="O74" s="22"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="19"/>
-      <c r="B75" s="38" t="s">
-        <v>848</v>
-      </c>
-      <c r="C75" s="32" t="s">
+      <c r="A75" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>849</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>850</v>
+      <c r="D75" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F75" s="28">
+        <v>3000</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="48"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
       <c r="N75" s="23"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="19"/>
-      <c r="B76" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>852</v>
-      </c>
+    <row r="76" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
+      <c r="A76" s="35"/>
+      <c r="B76" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="48"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
       <c r="N76" s="23"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="19"/>
-      <c r="B77" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>854</v>
+    <row r="77" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A77" s="49" t="s">
+        <v>859</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>862</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="48"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11786,23 +11781,21 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
-      <c r="B78" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F78" s="27"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>863</v>
+      </c>
+      <c r="F78" s="52"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="48"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11812,22 +11805,24 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="F79" s="27"/>
+        <v>864</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>865</v>
+      </c>
+      <c r="F79" s="52" t="s">
+        <v>866</v>
+      </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11835,82 +11830,76 @@
       <c r="O79" s="22"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>576</v>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>465</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F80" s="28">
-        <v>3000</v>
+        <v>867</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>868</v>
       </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="48"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
       <c r="N80" s="23"/>
       <c r="O80" s="22"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A81" s="35"/>
-      <c r="B81" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F81" s="27"/>
+    <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>863</v>
+      </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="48"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
       <c r="N81" s="23"/>
       <c r="O81" s="22"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A82" s="52" t="s">
-        <v>859</v>
-      </c>
+    <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="19"/>
       <c r="B82" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>862</v>
+        <v>870</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>865</v>
+      </c>
+      <c r="F82" s="52" t="s">
+        <v>809</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="48"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11919,21 +11908,25 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>863</v>
-      </c>
-      <c r="F83" s="55"/>
+      <c r="B83" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>873</v>
+      </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="48"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11942,25 +11935,21 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="19"/>
-      <c r="B84" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="C84" s="53" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="E84" s="54" t="s">
-        <v>865</v>
-      </c>
-      <c r="F84" s="55" t="s">
-        <v>866</v>
-      </c>
+      <c r="D84" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="48"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11969,23 +11958,25 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="53" t="s">
+      <c r="B85" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="54" t="s">
-        <v>465</v>
+      <c r="D85" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="48"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11994,50 +11985,49 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="54" t="s">
-        <v>869</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>863</v>
-      </c>
+      <c r="B86" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
       <c r="N86" s="23"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="87" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
       <c r="B87" s="20" t="s">
-        <v>870</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="E87" s="54" t="s">
-        <v>865</v>
-      </c>
-      <c r="F87" s="55" t="s">
-        <v>809</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="1" t="s">
+        <v>879</v>
+      </c>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12047,7 +12037,7 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="20" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>30</v>
@@ -12056,38 +12046,42 @@
         <v>493</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="48"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
       <c r="N88" s="23"/>
       <c r="O88" s="22"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="26" t="s">
+      <c r="B89" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="C89" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>874</v>
-      </c>
-      <c r="F89" s="27"/>
+      <c r="D89" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>883</v>
+      </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="48"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12095,26 +12089,26 @@
       <c r="O89" s="22"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>876</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>874</v>
-      </c>
+      <c r="A90" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>885</v>
+      </c>
+      <c r="C90" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="E90" s="57" t="s">
+        <v>886</v>
+      </c>
+      <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="48"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12123,49 +12117,32 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
-      <c r="B91" s="20" t="s">
-        <v>877</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>873</v>
-      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
+      <c r="J91" s="48"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
       <c r="N91" s="23"/>
       <c r="O91" s="22"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
-      <c r="B92" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>874</v>
-      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="1" t="s">
-        <v>879</v>
-      </c>
+      <c r="J92" s="48"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12174,52 +12151,32 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
-      <c r="B93" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>881</v>
-      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="48"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
       <c r="N93" s="23"/>
       <c r="O93" s="22"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
-      <c r="B94" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>876</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>883</v>
-      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="48"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12228,25 +12185,15 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
-      <c r="B95" s="57" t="s">
-        <v>843</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>884</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>797</v>
-      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="48"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12255,23 +12202,15 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
-      <c r="B96" s="57" t="s">
-        <v>885</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>886</v>
-      </c>
-      <c r="F96" s="29"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="48"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12280,10 +12219,15 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="48"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12292,10 +12236,15 @@
     </row>
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="48"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12304,10 +12253,15 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="48"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12315,26 +12269,16 @@
       <c r="O99" s="22"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="58" t="s">
-        <v>887</v>
-      </c>
-      <c r="B100" s="59" t="s">
-        <v>888</v>
-      </c>
-      <c r="C100" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="E100" s="61" t="s">
-        <v>889</v>
-      </c>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="48"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12351,7 +12295,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="48"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12368,7 +12312,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="48"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12385,7 +12329,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="48"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12402,7 +12346,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="48"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12419,7 +12363,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="48"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12436,7 +12380,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="48"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12453,7 +12397,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="48"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12470,7 +12414,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="48"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12487,7 +12431,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="48"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12504,7 +12448,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="48"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12521,7 +12465,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="48"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12538,7 +12482,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="48"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12555,7 +12499,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="48"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12572,7 +12516,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="48"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12589,7 +12533,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="48"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12606,7 +12550,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="48"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12623,7 +12567,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="48"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12640,7 +12584,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="48"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12657,7 +12601,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="48"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12674,7 +12618,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="48"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12691,7 +12635,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="48"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12708,7 +12652,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="48"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12725,7 +12669,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="48"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12742,7 +12686,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="48"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12759,7 +12703,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="48"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12776,7 +12720,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="48"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12793,7 +12737,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="48"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12810,7 +12754,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="48"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12827,7 +12771,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="48"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12844,7 +12788,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="48"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12861,7 +12805,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="48"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12878,7 +12822,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="48"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12895,7 +12839,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="48"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12912,7 +12856,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="48"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12929,7 +12873,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="48"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12946,7 +12890,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="48"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12963,7 +12907,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="48"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12980,7 +12924,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="48"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12997,7 +12941,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="48"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -13014,7 +12958,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="48"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -13031,7 +12975,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="48"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13048,7 +12992,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="48"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13065,7 +13009,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="48"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13082,7 +13026,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="48"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13099,7 +13043,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="48"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13116,7 +13060,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="48"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13133,7 +13077,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="48"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13150,7 +13094,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="48"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13167,7 +13111,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="48"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13184,7 +13128,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="48"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13201,7 +13145,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="48"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13218,7 +13162,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="48"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13235,7 +13179,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="48"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -13252,7 +13196,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="48"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -13269,7 +13213,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="48"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -13286,7 +13230,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="48"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -13303,7 +13247,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="48"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -13320,7 +13264,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="48"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -13337,7 +13281,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="48"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13354,7 +13298,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="48"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13371,7 +13315,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="48"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13388,7 +13332,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="48"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13405,7 +13349,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="48"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13422,7 +13366,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="48"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13439,7 +13383,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="48"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13456,7 +13400,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="48"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13473,7 +13417,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="48"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13490,7 +13434,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="48"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13507,7 +13451,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="48"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13524,182 +13468,12 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="48"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
       <c r="N170" s="23"/>
       <c r="O170" s="22"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="22"/>
-      <c r="L171" s="23"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="23"/>
-      <c r="O171" s="22"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="22"/>
-      <c r="L172" s="23"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="23"/>
-      <c r="O172" s="22"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
-      <c r="K173" s="22"/>
-      <c r="L173" s="23"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="23"/>
-      <c r="O173" s="22"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
-      <c r="K174" s="22"/>
-      <c r="L174" s="23"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="23"/>
-      <c r="O174" s="22"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
-      <c r="K175" s="22"/>
-      <c r="L175" s="23"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="23"/>
-      <c r="O175" s="22"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
-      <c r="K176" s="22"/>
-      <c r="L176" s="23"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="23"/>
-      <c r="O176" s="22"/>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
-      <c r="K177" s="22"/>
-      <c r="L177" s="23"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="23"/>
-      <c r="O177" s="22"/>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
-      <c r="K178" s="22"/>
-      <c r="L178" s="23"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="23"/>
-      <c r="O178" s="22"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
-      <c r="K179" s="22"/>
-      <c r="L179" s="23"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="23"/>
-      <c r="O179" s="22"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
-      <c r="K180" s="22"/>
-      <c r="L180" s="23"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="23"/>
-      <c r="O180" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13708,18 +13482,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N98:N180">
+  <conditionalFormatting sqref="N90:N170">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N90,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N90,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N90,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N97">
+  <conditionalFormatting sqref="N1 N3:N89">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13731,10 +13505,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C30 C31 C35 C36 C37 C38 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C92 C93 C94 C95 C96 C28:C29 C32:C34 C39:C40 C54:C56 C69:C70 C90:C91 C100:C180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C26 C27 C31 C32 C33 C34 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C87 C88 C89 C24:C25 C28:C30 C35:C36 C50:C52 C65:C66 C85:C86 C90:C170">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D30 D31 D35 D36 D37 D38 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D92 D93 D94 D95 D96 D28:D29 D32:D34 D39:D40 D54:D56 D69:D70 D90:D91 D100:D180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D26 D27 D31 D32 D33 D34 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D87 D88 D89 D24:D25 D28:D30 D35:D36 D50:D52 D65:D66 D85:D86 D90:D170">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-TransferNote.xlsx
+++ b/tests/artifact/script/Mobile-TransferNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2731,10 +2731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3339,16 +3339,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9727,8 +9727,8 @@
   <sheetPr/>
   <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/Mobile-TransferNote.xlsx
+++ b/tests/artifact/script/Mobile-TransferNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,7 +57,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2729,7 +2742,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -9727,8 +9740,8 @@
   <sheetPr/>
   <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="B55" sqref="$A55:$XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
